--- a/modelos/OBAFAR4421392/OBAFAR4421392_Sell Out_metricas.xlsx
+++ b/modelos/OBAFAR4421392/OBAFAR4421392_Sell Out_metricas.xlsx
@@ -476,13 +476,13 @@
         <v>45006</v>
       </c>
       <c r="B2" t="n">
-        <v>2.512310789061043</v>
+        <v>2.512310789061049</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6426741618731556</v>
+        <v>0.7513786566720287</v>
       </c>
       <c r="D2" t="n">
-        <v>4.237614103286769</v>
+        <v>4.247351957472151</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -496,13 +496,13 @@
         <v>45015</v>
       </c>
       <c r="B3" t="n">
-        <v>2.62952185487655</v>
+        <v>2.629521854876543</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9767838955927128</v>
+        <v>0.7360360151446648</v>
       </c>
       <c r="D3" t="n">
-        <v>4.494913404287321</v>
+        <v>4.355770657728753</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -516,13 +516,13 @@
         <v>45021</v>
       </c>
       <c r="B4" t="n">
-        <v>1.439906772916421</v>
+        <v>1.439906772916419</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.2714031749304471</v>
+        <v>-0.3708943806237325</v>
       </c>
       <c r="D4" t="n">
-        <v>3.196397664940184</v>
+        <v>3.3068057443734</v>
       </c>
       <c r="E4" t="n">
         <v>3</v>
@@ -536,13 +536,13 @@
         <v>45030</v>
       </c>
       <c r="B5" t="n">
-        <v>3.875945856240055</v>
+        <v>3.87594585623987</v>
       </c>
       <c r="C5" t="n">
-        <v>2.184752352207059</v>
+        <v>2.104257947395959</v>
       </c>
       <c r="D5" t="n">
-        <v>5.684216713633051</v>
+        <v>5.614861600431614</v>
       </c>
       <c r="E5" t="n">
         <v>2</v>
@@ -556,13 +556,13 @@
         <v>45033</v>
       </c>
       <c r="B6" t="n">
-        <v>1.201697494860019</v>
+        <v>1.20169749486002</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.5966485685469368</v>
+        <v>-0.6006903719782267</v>
       </c>
       <c r="D6" t="n">
-        <v>2.88776774407911</v>
+        <v>2.933344510629401</v>
       </c>
       <c r="E6" t="n">
         <v>4</v>
@@ -576,13 +576,13 @@
         <v>45040</v>
       </c>
       <c r="B7" t="n">
-        <v>1.895948286293881</v>
+        <v>1.895948286293906</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1185501358777297</v>
+        <v>0.1270072427748298</v>
       </c>
       <c r="D7" t="n">
-        <v>3.64083859197271</v>
+        <v>3.839912514632583</v>
       </c>
       <c r="E7" t="n">
         <v>2</v>
@@ -596,13 +596,13 @@
         <v>45052</v>
       </c>
       <c r="B8" t="n">
-        <v>2.744409597893589</v>
+        <v>2.744409597893594</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9738468920695845</v>
+        <v>0.9720137518503509</v>
       </c>
       <c r="D8" t="n">
-        <v>4.625406624085088</v>
+        <v>4.550004316790287</v>
       </c>
       <c r="E8" t="n">
         <v>3</v>
@@ -616,13 +616,13 @@
         <v>45059</v>
       </c>
       <c r="B9" t="n">
-        <v>2.766310020963055</v>
+        <v>2.766310020963053</v>
       </c>
       <c r="C9" t="n">
-        <v>1.044753140321645</v>
+        <v>1.070654132049513</v>
       </c>
       <c r="D9" t="n">
-        <v>4.568748437075478</v>
+        <v>4.509607702361818</v>
       </c>
       <c r="E9" t="n">
         <v>4</v>
@@ -697,22 +697,22 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>3.920661834698937</v>
+        <v>3.92066183469893</v>
       </c>
       <c r="C2" t="n">
-        <v>1.980066118769506</v>
+        <v>1.980066118769505</v>
       </c>
       <c r="D2" t="n">
-        <v>1.45117710942305</v>
+        <v>1.451177109423037</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3758007415690275</v>
+        <v>0.3758007415690209</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3758007415690275</v>
+        <v>0.3758007415690209</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5646671581567453</v>
+        <v>0.5646671581567381</v>
       </c>
       <c r="H2" t="n">
         <v>0.5</v>
@@ -723,22 +723,22 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>6.18859761022209</v>
+        <v>6.188597610222059</v>
       </c>
       <c r="C3" t="n">
-        <v>2.487689210938957</v>
+        <v>2.487689210938951</v>
       </c>
       <c r="D3" t="n">
-        <v>2.487689210938957</v>
+        <v>2.487689210938951</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4975378421877914</v>
+        <v>0.4975378421877902</v>
       </c>
       <c r="F3" t="n">
-        <v>0.4975378421877914</v>
+        <v>0.4975378421877902</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6622966703031973</v>
+        <v>0.6622966703031952</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -749,22 +749,22 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>2.433890877192055</v>
+        <v>2.433890877192062</v>
       </c>
       <c r="C4" t="n">
-        <v>1.560093227083579</v>
+        <v>1.560093227083581</v>
       </c>
       <c r="D4" t="n">
-        <v>1.560093227083579</v>
+        <v>1.560093227083581</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5200310756945262</v>
+        <v>0.520031075694527</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5200310756945262</v>
+        <v>0.520031075694527</v>
       </c>
       <c r="G4" t="n">
-        <v>0.7027594527886033</v>
+        <v>0.7027594527886045</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
@@ -775,22 +775,22 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>2.655341475520313</v>
+        <v>2.65534147552029</v>
       </c>
       <c r="C5" t="n">
-        <v>1.62952185487655</v>
+        <v>1.629521854876543</v>
       </c>
       <c r="D5" t="n">
-        <v>1.62952185487655</v>
+        <v>1.629521854876543</v>
       </c>
       <c r="E5" t="n">
-        <v>1.62952185487655</v>
+        <v>1.629521854876543</v>
       </c>
       <c r="F5" t="n">
-        <v>1.62952185487655</v>
+        <v>1.629521854876543</v>
       </c>
       <c r="G5" t="n">
-        <v>0.89792645975511</v>
+        <v>0.8979264597551078</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
@@ -801,22 +801,22 @@
         <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>3.519172855544235</v>
+        <v>3.519172855543538</v>
       </c>
       <c r="C6" t="n">
-        <v>1.875945856240055</v>
+        <v>1.87594585623987</v>
       </c>
       <c r="D6" t="n">
-        <v>1.875945856240055</v>
+        <v>1.87594585623987</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9379729281200277</v>
+        <v>0.9379729281199349</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9379729281200277</v>
+        <v>0.9379729281199349</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6385170667452167</v>
+        <v>0.6385170667451737</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -827,22 +827,22 @@
         <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>0.7936587090125472</v>
+        <v>0.7936587090125488</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8908752488494375</v>
+        <v>0.8908752488494384</v>
       </c>
       <c r="D7" t="n">
-        <v>0.744640190571678</v>
+        <v>0.7446401905716766</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1968096477306866</v>
+        <v>0.1968096477306861</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1968096477306866</v>
+        <v>0.1968096477306861</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2268220894601283</v>
+        <v>0.2268220894601279</v>
       </c>
       <c r="H7" t="n">
         <v>1</v>

--- a/modelos/OBAFAR4421392/OBAFAR4421392_Sell Out_metricas.xlsx
+++ b/modelos/OBAFAR4421392/OBAFAR4421392_Sell Out_metricas.xlsx
@@ -476,13 +476,13 @@
         <v>45006</v>
       </c>
       <c r="B2" t="n">
-        <v>2.512310789061049</v>
+        <v>2.512310789061002</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7513786566720287</v>
+        <v>0.7150487504400396</v>
       </c>
       <c r="D2" t="n">
-        <v>4.247351957472151</v>
+        <v>4.107571052900498</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -496,13 +496,13 @@
         <v>45015</v>
       </c>
       <c r="B3" t="n">
-        <v>2.629521854876543</v>
+        <v>2.629521854876542</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7360360151446648</v>
+        <v>0.8080587831215692</v>
       </c>
       <c r="D3" t="n">
-        <v>4.355770657728753</v>
+        <v>4.400326765052172</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -516,13 +516,13 @@
         <v>45021</v>
       </c>
       <c r="B4" t="n">
-        <v>1.439906772916419</v>
+        <v>1.439906772916422</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.3708943806237325</v>
+        <v>-0.4767250716597363</v>
       </c>
       <c r="D4" t="n">
-        <v>3.3068057443734</v>
+        <v>3.256614242403769</v>
       </c>
       <c r="E4" t="n">
         <v>3</v>
@@ -536,13 +536,13 @@
         <v>45030</v>
       </c>
       <c r="B5" t="n">
-        <v>3.87594585623987</v>
+        <v>3.875945856240048</v>
       </c>
       <c r="C5" t="n">
-        <v>2.104257947395959</v>
+        <v>2.124611827422742</v>
       </c>
       <c r="D5" t="n">
-        <v>5.614861600431614</v>
+        <v>5.713521904636328</v>
       </c>
       <c r="E5" t="n">
         <v>2</v>
@@ -556,13 +556,13 @@
         <v>45033</v>
       </c>
       <c r="B6" t="n">
-        <v>1.20169749486002</v>
+        <v>1.201697494860018</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.6006903719782267</v>
+        <v>-0.5400445394021069</v>
       </c>
       <c r="D6" t="n">
-        <v>2.933344510629401</v>
+        <v>3.03556816151859</v>
       </c>
       <c r="E6" t="n">
         <v>4</v>
@@ -576,13 +576,13 @@
         <v>45040</v>
       </c>
       <c r="B7" t="n">
-        <v>1.895948286293906</v>
+        <v>1.895948286293909</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1270072427748298</v>
+        <v>0.008157115074610222</v>
       </c>
       <c r="D7" t="n">
-        <v>3.839912514632583</v>
+        <v>3.724177538685368</v>
       </c>
       <c r="E7" t="n">
         <v>2</v>
@@ -596,13 +596,13 @@
         <v>45052</v>
       </c>
       <c r="B8" t="n">
-        <v>2.744409597893594</v>
+        <v>2.744409597893586</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9720137518503509</v>
+        <v>0.9640346175813</v>
       </c>
       <c r="D8" t="n">
-        <v>4.550004316790287</v>
+        <v>4.631740091036455</v>
       </c>
       <c r="E8" t="n">
         <v>3</v>
@@ -616,13 +616,13 @@
         <v>45059</v>
       </c>
       <c r="B9" t="n">
-        <v>2.766310020963053</v>
+        <v>2.76631002096306</v>
       </c>
       <c r="C9" t="n">
-        <v>1.070654132049513</v>
+        <v>0.9693503305296407</v>
       </c>
       <c r="D9" t="n">
-        <v>4.509607702361818</v>
+        <v>4.648913157070093</v>
       </c>
       <c r="E9" t="n">
         <v>4</v>
@@ -697,22 +697,22 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>3.92066183469893</v>
+        <v>3.920661834698936</v>
       </c>
       <c r="C2" t="n">
-        <v>1.980066118769505</v>
+        <v>1.980066118769506</v>
       </c>
       <c r="D2" t="n">
         <v>1.451177109423037</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3758007415690209</v>
+        <v>0.3758007415690206</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3758007415690209</v>
+        <v>0.3758007415690206</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5646671581567381</v>
+        <v>0.5646671581567382</v>
       </c>
       <c r="H2" t="n">
         <v>0.5</v>
@@ -723,22 +723,22 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>6.188597610222059</v>
+        <v>6.188597610222294</v>
       </c>
       <c r="C3" t="n">
-        <v>2.487689210938951</v>
+        <v>2.487689210938998</v>
       </c>
       <c r="D3" t="n">
-        <v>2.487689210938951</v>
+        <v>2.487689210938998</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4975378421877902</v>
+        <v>0.4975378421877996</v>
       </c>
       <c r="F3" t="n">
-        <v>0.4975378421877902</v>
+        <v>0.4975378421877996</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6622966703031952</v>
+        <v>0.6622966703032118</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -749,22 +749,22 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>2.433890877192062</v>
+        <v>2.433890877192054</v>
       </c>
       <c r="C4" t="n">
-        <v>1.560093227083581</v>
+        <v>1.560093227083578</v>
       </c>
       <c r="D4" t="n">
-        <v>1.560093227083581</v>
+        <v>1.560093227083578</v>
       </c>
       <c r="E4" t="n">
-        <v>0.520031075694527</v>
+        <v>0.5200310756945261</v>
       </c>
       <c r="F4" t="n">
-        <v>0.520031075694527</v>
+        <v>0.5200310756945261</v>
       </c>
       <c r="G4" t="n">
-        <v>0.7027594527886045</v>
+        <v>0.7027594527886031</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
@@ -775,22 +775,22 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>2.65534147552029</v>
+        <v>2.655341475520286</v>
       </c>
       <c r="C5" t="n">
-        <v>1.629521854876543</v>
+        <v>1.629521854876542</v>
       </c>
       <c r="D5" t="n">
-        <v>1.629521854876543</v>
+        <v>1.629521854876542</v>
       </c>
       <c r="E5" t="n">
-        <v>1.629521854876543</v>
+        <v>1.629521854876542</v>
       </c>
       <c r="F5" t="n">
-        <v>1.629521854876543</v>
+        <v>1.629521854876542</v>
       </c>
       <c r="G5" t="n">
-        <v>0.8979264597551078</v>
+        <v>0.8979264597551074</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
@@ -801,22 +801,22 @@
         <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>3.519172855543538</v>
+        <v>3.519172855544208</v>
       </c>
       <c r="C6" t="n">
-        <v>1.87594585623987</v>
+        <v>1.875945856240048</v>
       </c>
       <c r="D6" t="n">
-        <v>1.87594585623987</v>
+        <v>1.875945856240048</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9379729281199349</v>
+        <v>0.9379729281200242</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9379729281199349</v>
+        <v>0.9379729281200242</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6385170667451737</v>
+        <v>0.638517066745215</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -827,22 +827,22 @@
         <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>0.7936587090125488</v>
+        <v>0.793658709012542</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8908752488494384</v>
+        <v>0.8908752488494346</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7446401905716766</v>
+        <v>0.7446401905716771</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1968096477306861</v>
+        <v>0.1968096477306865</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1968096477306861</v>
+        <v>0.1968096477306865</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2268220894601279</v>
+        <v>0.2268220894601281</v>
       </c>
       <c r="H7" t="n">
         <v>1</v>

--- a/modelos/OBAFAR4421392/OBAFAR4421392_Sell Out_metricas.xlsx
+++ b/modelos/OBAFAR4421392/OBAFAR4421392_Sell Out_metricas.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,161 +473,141 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45006</v>
+        <v>45015</v>
       </c>
       <c r="B2" t="n">
-        <v>2.512310789061002</v>
+        <v>2.760154123323874</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7150487504400396</v>
+        <v>1.038692197149232</v>
       </c>
       <c r="D2" t="n">
-        <v>4.107571052900498</v>
+        <v>4.487751970894059</v>
       </c>
       <c r="E2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45003</v>
+        <v>45010</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45015</v>
+        <v>45021</v>
       </c>
       <c r="B3" t="n">
-        <v>2.629521854876542</v>
+        <v>1.305063916513217</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8080587831215692</v>
+        <v>-0.4540254882540521</v>
       </c>
       <c r="D3" t="n">
-        <v>4.400326765052172</v>
+        <v>2.970578743636298</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45010</v>
+        <v>45017</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45021</v>
+        <v>45030</v>
       </c>
       <c r="B4" t="n">
-        <v>1.439906772916422</v>
+        <v>4.146542248211782</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.4767250716597363</v>
+        <v>2.247424690826196</v>
       </c>
       <c r="D4" t="n">
-        <v>3.256614242403769</v>
+        <v>5.833977994697893</v>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45017</v>
+        <v>45024</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45030</v>
+        <v>45033</v>
       </c>
       <c r="B5" t="n">
-        <v>3.875945856240048</v>
+        <v>1.399750096313739</v>
       </c>
       <c r="C5" t="n">
-        <v>2.124611827422742</v>
+        <v>-0.4220670122950905</v>
       </c>
       <c r="D5" t="n">
-        <v>5.713521904636328</v>
+        <v>3.167317499673284</v>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45024</v>
+        <v>45031</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45033</v>
+        <v>45040</v>
       </c>
       <c r="B6" t="n">
-        <v>1.201697494860018</v>
+        <v>2.018075797573462</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.5400445394021069</v>
+        <v>0.07158271919991639</v>
       </c>
       <c r="D6" t="n">
-        <v>3.03556816151859</v>
+        <v>3.839218538911214</v>
       </c>
       <c r="E6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45031</v>
+        <v>45038</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45040</v>
+        <v>45052</v>
       </c>
       <c r="B7" t="n">
-        <v>1.895948286293909</v>
+        <v>2.921555683672307</v>
       </c>
       <c r="C7" t="n">
-        <v>0.008157115074610222</v>
+        <v>0.9916714978331582</v>
       </c>
       <c r="D7" t="n">
-        <v>3.724177538685368</v>
+        <v>4.787202622970216</v>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45038</v>
+        <v>45045</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45052</v>
+        <v>45059</v>
       </c>
       <c r="B8" t="n">
-        <v>2.744409597893586</v>
+        <v>2.886807144787463</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9640346175813</v>
+        <v>1.059013583805352</v>
       </c>
       <c r="D8" t="n">
-        <v>4.631740091036455</v>
+        <v>4.823245812154603</v>
       </c>
       <c r="E8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45045</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>45059</v>
-      </c>
-      <c r="B9" t="n">
-        <v>2.76631002096306</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.9693503305296407</v>
-      </c>
-      <c r="D9" t="n">
-        <v>4.648913157070093</v>
-      </c>
-      <c r="E9" t="n">
-        <v>4</v>
-      </c>
-      <c r="F9" s="2" t="n">
         <v>45052</v>
       </c>
     </row>
@@ -642,7 +622,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -697,22 +677,22 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>3.920661834698936</v>
+        <v>3.380813148039163</v>
       </c>
       <c r="C2" t="n">
-        <v>1.980066118769506</v>
+        <v>1.838698764898471</v>
       </c>
       <c r="D2" t="n">
-        <v>1.451177109423037</v>
+        <v>1.309162850629861</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3758007415690206</v>
+        <v>0.3295501873541481</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3758007415690206</v>
+        <v>0.3295501873541481</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5646671581567382</v>
+        <v>0.4860486656922512</v>
       </c>
       <c r="H2" t="n">
         <v>0.5</v>
@@ -720,25 +700,25 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>6.188597610222294</v>
+        <v>2.872808327105514</v>
       </c>
       <c r="C3" t="n">
-        <v>2.487689210938998</v>
+        <v>1.694936083486783</v>
       </c>
       <c r="D3" t="n">
-        <v>2.487689210938998</v>
+        <v>1.694936083486783</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4975378421877996</v>
+        <v>0.5649786944955942</v>
       </c>
       <c r="F3" t="n">
-        <v>0.4975378421877996</v>
+        <v>0.5649786944955942</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6622966703032118</v>
+        <v>0.7874150611262259</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -746,105 +726,79 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>2.433890877192054</v>
+        <v>3.098142537854035</v>
       </c>
       <c r="C4" t="n">
-        <v>1.560093227083578</v>
+        <v>1.760154123323874</v>
       </c>
       <c r="D4" t="n">
-        <v>1.560093227083578</v>
+        <v>1.760154123323874</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5200310756945261</v>
+        <v>1.760154123323874</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5200310756945261</v>
+        <v>1.760154123323874</v>
       </c>
       <c r="G4" t="n">
-        <v>0.7027594527886031</v>
+        <v>0.9362138176229572</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" t="n">
-        <v>2.655341475520286</v>
+        <v>4.607643623358092</v>
       </c>
       <c r="C5" t="n">
-        <v>1.629521854876542</v>
+        <v>2.146542248211782</v>
       </c>
       <c r="D5" t="n">
-        <v>1.629521854876542</v>
+        <v>2.146542248211782</v>
       </c>
       <c r="E5" t="n">
-        <v>1.629521854876542</v>
+        <v>1.073271124105891</v>
       </c>
       <c r="F5" t="n">
-        <v>1.629521854876542</v>
+        <v>1.073271124105891</v>
       </c>
       <c r="G5" t="n">
-        <v>0.8979264597551074</v>
+        <v>0.6984552164548375</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6" t="n">
-        <v>3.519172855544208</v>
+        <v>0.6226759218301797</v>
       </c>
       <c r="C6" t="n">
-        <v>1.875945856240048</v>
+        <v>0.7890981699574393</v>
       </c>
       <c r="D6" t="n">
-        <v>1.875945856240048</v>
+        <v>0.595818585770115</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9379729281200242</v>
+        <v>0.1522231596228493</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9379729281200242</v>
+        <v>0.1522231596228493</v>
       </c>
       <c r="G6" t="n">
-        <v>0.638517066745215</v>
+        <v>0.1748886053649638</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.793658709012542</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.8908752488494346</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.7446401905716771</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.1968096477306865</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.1968096477306865</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.2268220894601281</v>
-      </c>
-      <c r="H7" t="n">
         <v>1</v>
       </c>
     </row>
